--- a/apps/load_data/2018/02/PLMOVMAE.xlsx
+++ b/apps/load_data/2018/02/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2018\HHY0218\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2018\HHY0218\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C71DD6-F9AA-4993-A0D6-C871A3363A93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B41838-2F47-412E-A596-9432158EDAA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$264</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$264</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10082" uniqueCount="2622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10069" uniqueCount="2620">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6472,9 +6473,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    123169    1231691081    326625    3266251082    175875    1758752001         0     424612006     44500     445002026    323225    3232252027      3068      30682029      1500      15002086      2500      25002180       250       250</t>
   </si>
   <si>
@@ -7802,9 +7800,6 @@
   </si>
   <si>
     <t>06567208</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -7894,7 +7889,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8734,10 +8729,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD272" sqref="AD272"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44045,12 +44042,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -44109,10 +44101,10 @@
         <v>108</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2150</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2151</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>111</v>
@@ -44124,7 +44116,7 @@
         <v>150</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>115</v>
@@ -44145,13 +44137,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2154</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -44186,13 +44178,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2158</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -44224,12 +44216,7 @@
       <c r="AB210" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -44276,7 +44263,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BB210" s="1">
         <v>2</v>
@@ -44288,10 +44275,10 @@
         <v>108</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2161</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>111</v>
@@ -44303,13 +44290,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>115</v>
@@ -44333,13 +44320,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1786</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -44374,13 +44361,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2167</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2168</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -44412,12 +44399,7 @@
       <c r="AB211" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -44464,7 +44446,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BB211" s="1">
         <v>2</v>
@@ -44479,10 +44461,10 @@
         <v>108</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2170</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2171</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>111</v>
@@ -44494,13 +44476,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>115</v>
@@ -44524,13 +44506,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2174</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2175</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -44565,13 +44547,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2178</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2179</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -44600,12 +44582,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -44655,7 +44632,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BB212" s="1">
         <v>2</v>
@@ -44667,10 +44644,10 @@
         <v>108</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2181</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2182</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>111</v>
@@ -44679,7 +44656,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>115</v>
@@ -44697,13 +44674,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -44738,13 +44715,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2187</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2188</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -44773,12 +44750,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -44828,7 +44800,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BB213" s="1">
         <v>2</v>
@@ -44840,7 +44812,7 @@
         <v>108</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>111</v>
@@ -44849,7 +44821,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>115</v>
@@ -44870,10 +44842,10 @@
         <v>647</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2192</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -44908,13 +44880,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2196</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -44943,12 +44915,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -44998,7 +44965,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="BB214" s="1">
         <v>2</v>
@@ -45010,10 +44977,10 @@
         <v>108</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="BI214" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>111</v>
@@ -45022,7 +44989,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>115</v>
@@ -45040,13 +45007,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2200</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2200</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45081,13 +45048,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2202</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2203</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2204</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45122,12 +45089,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -45174,7 +45136,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BB215" s="1">
         <v>2</v>
@@ -45183,13 +45145,13 @@
         <v>18</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>108</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>366</v>
@@ -45204,13 +45166,13 @@
         <v>112</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>115</v>
@@ -45228,13 +45190,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2211</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2212</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -45269,13 +45231,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2214</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2215</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -45304,12 +45266,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -45359,7 +45316,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BB216" s="1">
         <v>2</v>
@@ -45371,10 +45328,10 @@
         <v>108</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BI216" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>111</v>
@@ -45383,7 +45340,7 @@
         <v>102</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>115</v>
@@ -45401,13 +45358,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2219</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2220</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -45442,13 +45399,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2223</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2224</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -45477,12 +45434,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -45532,7 +45484,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="BB217" s="1">
         <v>2</v>
@@ -45544,10 +45496,10 @@
         <v>108</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="BI217" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>111</v>
@@ -45559,7 +45511,7 @@
         <v>150</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>115</v>
@@ -45577,13 +45529,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2229</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2230</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -45618,13 +45570,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2233</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -45653,12 +45605,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -45705,7 +45652,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="BB218" s="1">
         <v>2</v>
@@ -45714,16 +45661,16 @@
         <v>18</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>108</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2236</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2237</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>111</v>
@@ -45735,13 +45682,13 @@
         <v>209</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>115</v>
@@ -45759,13 +45706,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>429</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -45800,13 +45747,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2243</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2244</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -45838,12 +45785,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -45893,7 +45835,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BB219" s="1">
         <v>2</v>
@@ -45908,7 +45850,7 @@
         <v>108</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>786</v>
@@ -45920,7 +45862,7 @@
         <v>102</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>115</v>
@@ -45941,13 +45883,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2249</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -45982,13 +45924,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2252</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2253</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -46017,12 +45959,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2149</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -46069,7 +46006,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="BB220" s="1">
         <v>2</v>
@@ -46084,10 +46021,10 @@
         <v>108</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2256</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>111</v>
@@ -46099,13 +46036,13 @@
         <v>112</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>115</v>
@@ -46123,13 +46060,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1625</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46164,13 +46101,13 @@
         <v>157</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2262</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2263</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -46221,7 +46158,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -46260,13 +46197,13 @@
         <v>108</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>115</v>
@@ -46290,10 +46227,10 @@
         <v>2045</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2267</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2268</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -46328,13 +46265,13 @@
         <v>157</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2269</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2270</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2271</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -46388,7 +46325,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -46427,13 +46364,13 @@
         <v>108</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>115</v>
@@ -46454,13 +46391,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -46495,13 +46432,13 @@
         <v>157</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -46555,7 +46492,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -46594,13 +46531,13 @@
         <v>108</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>115</v>
@@ -46621,13 +46558,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2283</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2284</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -46662,13 +46599,13 @@
         <v>157</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2286</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2287</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -46758,13 +46695,13 @@
         <v>108</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>115</v>
@@ -46785,10 +46722,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>197</v>
@@ -46826,13 +46763,13 @@
         <v>157</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2293</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -46886,7 +46823,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -46925,13 +46862,13 @@
         <v>108</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>115</v>
@@ -46955,13 +46892,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1134</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -46996,13 +46933,13 @@
         <v>157</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2297</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2299</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47053,7 +46990,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47092,13 +47029,13 @@
         <v>108</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>115</v>
@@ -47119,13 +47056,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2220</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2304</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -47160,10 +47097,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2305</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2306</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>220</v>
@@ -47229,7 +47166,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -47247,7 +47184,7 @@
         <v>224</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -47276,16 +47213,16 @@
         <v>91</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2309</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2310</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>220</v>
@@ -47354,7 +47291,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>117</v>
@@ -47366,7 +47303,7 @@
         <v>224</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -47401,13 +47338,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2313</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2314</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -47485,7 +47422,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BB229" s="1">
         <v>2</v>
@@ -47497,7 +47434,7 @@
         <v>108</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>111</v>
@@ -47509,7 +47446,7 @@
         <v>150</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>115</v>
@@ -47527,13 +47464,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>429</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -47568,13 +47505,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2321</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2322</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -47649,7 +47586,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BB230" s="1">
         <v>2</v>
@@ -47661,7 +47598,7 @@
         <v>108</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>1703</v>
@@ -47676,13 +47613,13 @@
         <v>209</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>115</v>
@@ -47700,13 +47637,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2329</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -47741,13 +47678,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -47822,7 +47759,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BB231" s="1">
         <v>2</v>
@@ -47834,7 +47771,7 @@
         <v>108</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1684</v>
@@ -47849,13 +47786,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>115</v>
@@ -47873,13 +47810,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -47914,13 +47851,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -47998,7 +47935,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BB232" s="1">
         <v>2</v>
@@ -48010,7 +47947,7 @@
         <v>108</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>111</v>
@@ -48019,7 +47956,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>115</v>
@@ -48037,13 +47974,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>814</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -48078,13 +48015,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2348</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2349</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2350</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -48117,7 +48054,7 @@
         <v>103</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1722</v>
@@ -48162,7 +48099,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BB233" s="1">
         <v>2</v>
@@ -48174,7 +48111,7 @@
         <v>108</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1660</v>
@@ -48186,7 +48123,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>115</v>
@@ -48207,10 +48144,10 @@
         <v>1447</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -48245,13 +48182,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -48329,7 +48266,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BB234" s="1">
         <v>2</v>
@@ -48341,7 +48278,7 @@
         <v>108</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1877</v>
@@ -48353,7 +48290,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>115</v>
@@ -48377,7 +48314,7 @@
         <v>884</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -48412,13 +48349,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -48496,7 +48433,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BB235" s="1">
         <v>2</v>
@@ -48508,7 +48445,7 @@
         <v>108</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BI235" s="1" t="s">
         <v>579</v>
@@ -48520,7 +48457,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>115</v>
@@ -48538,13 +48475,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2372</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -48579,13 +48516,13 @@
         <v>157</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -48627,7 +48564,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -48660,13 +48597,13 @@
         <v>108</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>115</v>
@@ -48684,13 +48621,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>300</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -48725,13 +48662,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2382</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2383</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -48770,7 +48707,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>103</v>
@@ -48824,16 +48761,16 @@
         <v>18</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>108</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2385</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2386</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>111</v>
@@ -48845,13 +48782,13 @@
         <v>209</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>115</v>
@@ -48872,7 +48809,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>290</v>
@@ -48913,13 +48850,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -49006,7 +48943,7 @@
         <v>108</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BI238" s="1" t="s">
         <v>386</v>
@@ -49021,13 +48958,13 @@
         <v>112</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>115</v>
@@ -49051,7 +48988,7 @@
         <v>637</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -49086,13 +49023,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2397</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -49179,7 +49116,7 @@
         <v>108</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>111</v>
@@ -49188,7 +49125,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>115</v>
@@ -49206,13 +49143,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -49247,13 +49184,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -49340,7 +49277,7 @@
         <v>108</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>579</v>
@@ -49352,7 +49289,7 @@
         <v>102</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>115</v>
@@ -49370,13 +49307,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -49411,13 +49348,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2414</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2415</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -49504,10 +49441,10 @@
         <v>108</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2416</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2417</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>111</v>
@@ -49519,13 +49456,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>115</v>
@@ -49546,10 +49483,10 @@
         <v>512</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -49584,13 +49521,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2424</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -49677,10 +49614,10 @@
         <v>108</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2426</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>111</v>
@@ -49692,13 +49629,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>115</v>
@@ -49719,10 +49656,10 @@
         <v>884</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -49757,13 +49694,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2433</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -49847,7 +49784,7 @@
         <v>108</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>1027</v>
@@ -49862,13 +49799,13 @@
         <v>112</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>115</v>
@@ -49886,13 +49823,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -49927,13 +49864,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2441</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -50020,10 +49957,10 @@
         <v>108</v>
       </c>
       <c r="BH244" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="BI244" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="BI244" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>111</v>
@@ -50035,13 +49972,13 @@
         <v>112</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>115</v>
@@ -50059,13 +49996,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -50100,13 +50037,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2450</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2451</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -50193,7 +50130,7 @@
         <v>108</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>111</v>
@@ -50202,7 +50139,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>115</v>
@@ -50223,10 +50160,10 @@
         <v>1149</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -50261,13 +50198,13 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
@@ -50345,7 +50282,7 @@
         <v>98</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BB246" s="1">
         <v>2</v>
@@ -50366,7 +50303,7 @@
         <v>102</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>115</v>
@@ -50384,13 +50321,13 @@
         <v>98</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2461</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2462</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2463</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -50425,13 +50362,13 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
@@ -50509,7 +50446,7 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BB247" s="1">
         <v>2</v>
@@ -50521,7 +50458,7 @@
         <v>108</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>786</v>
@@ -50533,7 +50470,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>115</v>
@@ -50551,13 +50488,13 @@
         <v>98</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -50592,13 +50529,13 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
@@ -50676,7 +50613,7 @@
         <v>98</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BB248" s="1">
         <v>2</v>
@@ -50688,7 +50625,7 @@
         <v>108</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>111</v>
@@ -50697,7 +50634,7 @@
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>115</v>
@@ -50718,10 +50655,10 @@
         <v>1020</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2477</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2478</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -50756,13 +50693,13 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
@@ -50837,7 +50774,7 @@
         <v>98</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BB249" s="1">
         <v>2</v>
@@ -50852,10 +50789,10 @@
         <v>108</v>
       </c>
       <c r="BH249" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="BI249" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="BI249" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>111</v>
@@ -50867,13 +50804,13 @@
         <v>209</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BS249" s="3">
         <v>37513</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>115</v>
@@ -50891,13 +50828,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>119</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -50932,13 +50869,13 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
@@ -51022,10 +50959,10 @@
         <v>108</v>
       </c>
       <c r="BH250" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="BI250" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="BI250" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>111</v>
@@ -51037,13 +50974,13 @@
         <v>99</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BS250" s="3">
         <v>41024</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>115</v>
@@ -51061,13 +50998,13 @@
         <v>98</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -51102,13 +51039,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -51141,7 +51078,7 @@
         <v>103</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="AH251" s="1" t="s">
         <v>1722</v>
@@ -51165,28 +51102,28 @@
         <v>97</v>
       </c>
       <c r="AQ251" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AR251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY251" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ251" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="AR251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY251" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ251" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="BB251" s="1">
         <v>2</v>
@@ -51198,7 +51135,7 @@
         <v>108</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>1724</v>
@@ -51213,13 +51150,13 @@
         <v>112</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BS251" s="3">
         <v>34808</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>115</v>
@@ -51237,13 +51174,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -51278,13 +51215,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -51359,7 +51296,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BB252" s="1">
         <v>2</v>
@@ -51371,10 +51308,10 @@
         <v>108</v>
       </c>
       <c r="BH252" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="BI252" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="BI252" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>111</v>
@@ -51386,13 +51323,13 @@
         <v>99</v>
       </c>
       <c r="BR252" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BS252" s="3">
         <v>37336</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>115</v>
@@ -51410,13 +51347,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -51451,13 +51388,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -51535,7 +51472,7 @@
         <v>98</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BB253" s="1">
         <v>2</v>
@@ -51547,10 +51484,10 @@
         <v>108</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BI253" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>111</v>
@@ -51559,7 +51496,7 @@
         <v>102</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>115</v>
@@ -51577,13 +51514,13 @@
         <v>98</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2529</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -51618,13 +51555,13 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -51711,7 +51648,7 @@
         <v>108</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>111</v>
@@ -51720,7 +51657,7 @@
         <v>102</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>115</v>
@@ -51738,13 +51675,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -51779,13 +51716,13 @@
         <v>157</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
@@ -51872,13 +51809,13 @@
         <v>108</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>115</v>
@@ -51896,13 +51833,13 @@
         <v>98</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>2123</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -51931,7 +51868,7 @@
         <v>91</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>93</v>
@@ -51940,10 +51877,10 @@
         <v>252</v>
       </c>
       <c r="L256" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="M256" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="N256" s="1" t="s">
         <v>254</v>
@@ -51973,7 +51910,7 @@
         <v>42582</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>103</v>
@@ -52024,10 +51961,10 @@
         <v>255</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>111</v>
@@ -52083,7 +52020,7 @@
         <v>121</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>89</v>
@@ -52101,16 +52038,16 @@
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="M257" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>2547</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="Q257" s="3">
         <v>17060</v>
@@ -52143,7 +52080,7 @@
         <v>42628</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>103</v>
@@ -52194,16 +52131,16 @@
         <v>98</v>
       </c>
       <c r="AZ257" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BD257" s="1" t="s">
         <v>222</v>
       </c>
       <c r="BH257" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="BI257" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="BI257" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>111</v>
@@ -52212,7 +52149,7 @@
         <v>102</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>115</v>
@@ -52236,7 +52173,7 @@
         <v>119</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -52253,7 +52190,7 @@
         <v>121</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>98</v>
@@ -52265,22 +52202,22 @@
         <v>91</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="M258" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="N258" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>2547</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="Q258" s="3">
         <v>26864</v>
@@ -52310,7 +52247,7 @@
         <v>42735</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>103</v>
@@ -52361,7 +52298,7 @@
         <v>99</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>111</v>
@@ -52373,13 +52310,13 @@
         <v>209</v>
       </c>
       <c r="BR258" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BS258" s="3">
         <v>102</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>115</v>
@@ -52400,13 +52337,13 @@
         <v>98</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2572</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -52435,22 +52372,22 @@
         <v>91</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="M259" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>2547</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="Q259" s="3">
         <v>17041</v>
@@ -52477,7 +52414,7 @@
         <v>42735</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>103</v>
@@ -52528,7 +52465,7 @@
         <v>98</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>111</v>
@@ -52537,7 +52474,7 @@
         <v>102</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>115</v>
@@ -52558,13 +52495,13 @@
         <v>98</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="CD259" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="CD259" s="1" t="s">
+      <c r="CE259" s="1" t="s">
         <v>2579</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>2580</v>
       </c>
     </row>
     <row r="260" spans="1:83" x14ac:dyDescent="0.25">
@@ -52599,16 +52536,16 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="M260" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="N260" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>2547</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2583</v>
       </c>
       <c r="Q260" s="3">
         <v>25379</v>
@@ -52638,7 +52575,7 @@
         <v>39800</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>230</v>
@@ -52689,7 +52626,7 @@
         <v>99</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>111</v>
@@ -52701,13 +52638,13 @@
         <v>220</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BS260" s="3">
         <v>35915</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>115</v>
@@ -52722,7 +52659,7 @@
         <v>231</v>
       </c>
       <c r="BZ260" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="CA260" s="1" t="s">
         <v>117</v>
@@ -52737,7 +52674,7 @@
         <v>439</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -52772,16 +52709,16 @@
         <v>93</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="M261" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="N261" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="M261" s="1" t="s">
-        <v>2547</v>
-      </c>
-      <c r="N261" s="1" t="s">
-        <v>2592</v>
       </c>
       <c r="Q261" s="3">
         <v>23750</v>
@@ -52810,12 +52747,7 @@
       <c r="AA261" s="1">
         <v>0</v>
       </c>
-      <c r="AC261" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD261" s="1" t="s">
-        <v>2593</v>
-      </c>
+      <c r="AC261" s="3"/>
       <c r="AF261" s="1" t="s">
         <v>103</v>
       </c>
@@ -52865,13 +52797,13 @@
         <v>98</v>
       </c>
       <c r="AZ261" s="1" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="BD261" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>111</v>
@@ -52880,7 +52812,7 @@
         <v>102</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>115</v>
@@ -52904,10 +52836,10 @@
         <v>1061</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="262" spans="1:83" x14ac:dyDescent="0.25">
@@ -52942,13 +52874,13 @@
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="N262" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>2600</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>97</v>
@@ -53032,10 +52964,10 @@
         <v>108</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="BI262" s="1" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>111</v>
@@ -53044,13 +52976,13 @@
         <v>99</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="BS262" s="3">
         <v>35209</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>115</v>
@@ -53071,10 +53003,10 @@
         <v>1505</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -53109,16 +53041,16 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="N263" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="L263" s="1" t="s">
-        <v>2608</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>2547</v>
-      </c>
-      <c r="N263" s="1" t="s">
-        <v>2609</v>
       </c>
       <c r="Q263" s="3">
         <v>17470</v>
@@ -53148,7 +53080,7 @@
         <v>43100</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>103</v>
@@ -53199,7 +53131,7 @@
         <v>98</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>111</v>
@@ -53208,7 +53140,7 @@
         <v>102</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>115</v>
@@ -53223,7 +53155,7 @@
         <v>97</v>
       </c>
       <c r="BZ263" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="CA263" s="1" t="s">
         <v>117</v>
@@ -53232,13 +53164,13 @@
         <v>98</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CE263" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>2613</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>2614</v>
       </c>
     </row>
     <row r="264" spans="1:83" x14ac:dyDescent="0.25">
@@ -53273,13 +53205,13 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="L264" s="1" t="s">
         <v>2127</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>97</v>
@@ -53363,7 +53295,7 @@
         <v>108</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>111</v>
@@ -53375,13 +53307,13 @@
         <v>99</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="BS264" s="3">
         <v>34412</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>115</v>
@@ -53399,16 +53331,17 @@
         <v>98</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>2136</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF264" xr:uid="{A07EDB03-08C0-4CAD-B042-C04F63416854}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>